--- a/score.xlsx
+++ b/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ABC1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>WXYZ5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,20 +87,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -97,14 +130,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -387,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -399,60 +435,92 @@
     <col min="2" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B2" s="3">
         <v>43497</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3">
         <v>43506</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="3">
         <v>43507</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="3">
         <v>43494</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="3">
         <v>43485</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="3">
         <v>43498</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="3">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="3">
         <v>43514</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43521</v>
       </c>
     </row>
   </sheetData>
